--- a/ac translations/Chinese.xlsx
+++ b/ac translations/Chinese.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\ac translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvi\Desktop\dev\helpers\translation fetcher\ac translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese Translation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1208,6 +1208,27 @@
     <t>没有连接 \ 等待互联网...</t>
   </si>
   <si>
+    <t>你好 :) \ 为你加载一些东西...</t>
+  </si>
+  <si>
+    <t>振动 :(</t>
+  </si>
+  <si>
+    <t>我的公司不在这里 :(</t>
+  </si>
+  <si>
+    <t>否 :(</t>
+  </si>
+  <si>
+    <t>我的遥控器丢失了 :(</t>
+  </si>
+  <si>
+    <t>我的电视不在这里 :(</t>
+  </si>
+  <si>
+    <t>空调遥控 ____  - 现在免费</t>
+  </si>
+  <si>
     <t>限时免费版
 遥控空调失去了你的空调？没问题！
 **免责声明
@@ -1218,8 +1239,6 @@
 不知道这是什么意思？你可以尝试下载应用程序，看看它是否工作
 你的遥控器丢失了？只要问我们从应用程序
 特征：
-*从手机上控制你的____电视机
-*音量控制你的电视（上/下/静音/ AV）
 *保存您最喜爱的遥控器，方便使用
 *没有安装，只需点击和播放
 *令人惊叹的设计与凉爽和简单的界面
@@ -1227,32 +1246,11 @@
 请随时与我们联系
 电视遥控器为您的点击播放机顶盒</t>
   </si>
-  <si>
-    <t>你好 :) \ 为你加载一些东西...</t>
-  </si>
-  <si>
-    <t>振动 :(</t>
-  </si>
-  <si>
-    <t>我的公司不在这里 :(</t>
-  </si>
-  <si>
-    <t>否 :(</t>
-  </si>
-  <si>
-    <t>我的遥控器丢失了 :(</t>
-  </si>
-  <si>
-    <t>我的电视不在这里 :(</t>
-  </si>
-  <si>
-    <t>空调遥控 ____  - 现在免费</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -1735,11 +1733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1784,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2196,7 +2194,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F38" t="s">
         <v>75</v>
@@ -2292,7 +2290,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F46" t="s">
         <v>90</v>
@@ -2426,7 +2424,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F57" t="s">
         <v>112</v>
@@ -2594,7 +2592,7 @@
         <v>137</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F71" t="s">
         <v>138</v>
@@ -3026,7 +3024,7 @@
         <v>207</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F107" t="s">
         <v>208</v>
@@ -3038,7 +3036,7 @@
         <v>209</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F108" t="s">
         <v>210</v>
@@ -3170,7 +3168,7 @@
         <v>89</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F119" t="s">
         <v>231</v>
@@ -3368,7 +3366,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="363" thickBot="1">
+    <row r="136" spans="1:6" ht="345.75" thickBot="1">
       <c r="A136" s="8" t="s">
         <v>263</v>
       </c>
@@ -3376,7 +3374,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F136" t="s">
         <v>264</v>

--- a/ac translations/Chinese.xlsx
+++ b/ac translations/Chinese.xlsx
@@ -896,9 +896,6 @@
     <t>远程空调</t>
   </si>
   <si>
-    <t>空调遥控____  - 现在免费</t>
-  </si>
-  <si>
     <t>概要</t>
   </si>
   <si>
@@ -1247,6 +1244,9 @@
   </si>
   <si>
     <t>我的电视不在这里 :(</t>
+  </si>
+  <si>
+    <t>空调遥控 ____  - 现在免费</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1739,7 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1784,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>286</v>
+        <v>397</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1798,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1810,7 +1810,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1824,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1836,7 +1836,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1848,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1872,7 +1872,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -1884,7 +1884,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -1896,7 +1896,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -1908,7 +1908,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1920,7 +1920,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -1932,7 +1932,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
@@ -1944,7 +1944,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
         <v>33</v>
@@ -1956,7 +1956,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
@@ -1968,7 +1968,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -1992,7 +1992,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
@@ -2004,7 +2004,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -2016,7 +2016,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
@@ -2028,7 +2028,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -2040,7 +2040,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -2052,7 +2052,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
@@ -2064,7 +2064,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
@@ -2076,7 +2076,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
@@ -2088,7 +2088,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F29" t="s">
         <v>57</v>
@@ -2100,7 +2100,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -2112,7 +2112,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F31" t="s">
         <v>61</v>
@@ -2124,7 +2124,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -2136,7 +2136,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F33" t="s">
         <v>65</v>
@@ -2148,7 +2148,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F34" t="s">
         <v>67</v>
@@ -2160,7 +2160,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F35" t="s">
         <v>69</v>
@@ -2172,7 +2172,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F36" t="s">
         <v>71</v>
@@ -2184,7 +2184,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F37" t="s">
         <v>73</v>
@@ -2196,7 +2196,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F38" t="s">
         <v>75</v>
@@ -2208,7 +2208,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F39" t="s">
         <v>77</v>
@@ -2232,7 +2232,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" t="s">
         <v>81</v>
@@ -2244,7 +2244,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F42" t="s">
         <v>83</v>
@@ -2268,7 +2268,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F44" t="s">
         <v>86</v>
@@ -2280,7 +2280,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
         <v>88</v>
@@ -2292,7 +2292,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F46" t="s">
         <v>90</v>
@@ -2304,7 +2304,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F47" t="s">
         <v>92</v>
@@ -2316,7 +2316,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F48" t="s">
         <v>94</v>
@@ -2328,7 +2328,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F49" t="s">
         <v>96</v>
@@ -2340,7 +2340,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F50" t="s">
         <v>98</v>
@@ -2352,7 +2352,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F51" t="s">
         <v>100</v>
@@ -2364,7 +2364,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F52" t="s">
         <v>102</v>
@@ -2376,7 +2376,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F53" t="s">
         <v>104</v>
@@ -2388,7 +2388,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F54" t="s">
         <v>106</v>
@@ -2402,7 +2402,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F55" t="s">
         <v>108</v>
@@ -2414,7 +2414,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F56" t="s">
         <v>110</v>
@@ -2426,7 +2426,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F57" t="s">
         <v>112</v>
@@ -2438,7 +2438,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F58" t="s">
         <v>114</v>
@@ -2450,7 +2450,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F59" t="s">
         <v>116</v>
@@ -2462,7 +2462,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F60" t="s">
         <v>118</v>
@@ -2474,7 +2474,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F61" t="s">
         <v>120</v>
@@ -2486,7 +2486,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F62" t="s">
         <v>122</v>
@@ -2498,7 +2498,7 @@
         <v>121</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F63" t="s">
         <v>123</v>
@@ -2510,7 +2510,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F64" t="s">
         <v>125</v>
@@ -2522,7 +2522,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F65" t="s">
         <v>127</v>
@@ -2534,7 +2534,7 @@
         <v>266</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F66" t="s">
         <v>128</v>
@@ -2546,7 +2546,7 @@
         <v>129</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F67" t="s">
         <v>130</v>
@@ -2558,7 +2558,7 @@
         <v>131</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F68" t="s">
         <v>132</v>
@@ -2570,7 +2570,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F69" t="s">
         <v>134</v>
@@ -2582,7 +2582,7 @@
         <v>135</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F70" t="s">
         <v>136</v>
@@ -2594,7 +2594,7 @@
         <v>137</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F71" t="s">
         <v>138</v>
@@ -2606,7 +2606,7 @@
         <v>139</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F72" t="s">
         <v>140</v>
@@ -2618,7 +2618,7 @@
         <v>141</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F73" t="s">
         <v>142</v>
@@ -2630,7 +2630,7 @@
         <v>143</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F74" t="s">
         <v>144</v>
@@ -2642,7 +2642,7 @@
         <v>145</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F75" t="s">
         <v>146</v>
@@ -2654,7 +2654,7 @@
         <v>147</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F76" t="s">
         <v>148</v>
@@ -2666,7 +2666,7 @@
         <v>149</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F77" t="s">
         <v>150</v>
@@ -2690,7 +2690,7 @@
         <v>152</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F79" t="s">
         <v>153</v>
@@ -2702,7 +2702,7 @@
         <v>154</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F80" t="s">
         <v>155</v>
@@ -2714,7 +2714,7 @@
         <v>156</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F81" t="s">
         <v>157</v>
@@ -2726,7 +2726,7 @@
         <v>158</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F82" t="s">
         <v>159</v>
@@ -2738,7 +2738,7 @@
         <v>160</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F83" t="s">
         <v>161</v>
@@ -2750,7 +2750,7 @@
         <v>162</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F84" t="s">
         <v>163</v>
@@ -2762,7 +2762,7 @@
         <v>164</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F85" t="s">
         <v>165</v>
@@ -2774,7 +2774,7 @@
         <v>166</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F86" t="s">
         <v>167</v>
@@ -2786,7 +2786,7 @@
         <v>168</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F87" t="s">
         <v>169</v>
@@ -2798,7 +2798,7 @@
         <v>170</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F88" t="s">
         <v>171</v>
@@ -2810,7 +2810,7 @@
         <v>172</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F89" t="s">
         <v>173</v>
@@ -2822,7 +2822,7 @@
         <v>174</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F90" t="s">
         <v>175</v>
@@ -2834,7 +2834,7 @@
         <v>176</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F91" t="s">
         <v>177</v>
@@ -2846,7 +2846,7 @@
         <v>178</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F92" t="s">
         <v>179</v>
@@ -2858,7 +2858,7 @@
         <v>180</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F93" t="s">
         <v>181</v>
@@ -2870,7 +2870,7 @@
         <v>182</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F94" t="s">
         <v>183</v>
@@ -2882,7 +2882,7 @@
         <v>184</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F95" t="s">
         <v>185</v>
@@ -2894,7 +2894,7 @@
         <v>186</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F96" t="s">
         <v>187</v>
@@ -2906,7 +2906,7 @@
         <v>188</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F97" t="s">
         <v>189</v>
@@ -2918,7 +2918,7 @@
         <v>190</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F98" t="s">
         <v>191</v>
@@ -2930,7 +2930,7 @@
         <v>152</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F99" t="s">
         <v>192</v>
@@ -2942,7 +2942,7 @@
         <v>193</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F100" t="s">
         <v>194</v>
@@ -2954,7 +2954,7 @@
         <v>195</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F101" t="s">
         <v>196</v>
@@ -2966,7 +2966,7 @@
         <v>197</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F102" t="s">
         <v>198</v>
@@ -2978,7 +2978,7 @@
         <v>199</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F103" t="s">
         <v>200</v>
@@ -2990,7 +2990,7 @@
         <v>201</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F104" t="s">
         <v>202</v>
@@ -3002,7 +3002,7 @@
         <v>203</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F105" t="s">
         <v>204</v>
@@ -3014,7 +3014,7 @@
         <v>205</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F106" t="s">
         <v>206</v>
@@ -3026,7 +3026,7 @@
         <v>207</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F107" t="s">
         <v>208</v>
@@ -3038,7 +3038,7 @@
         <v>209</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F108" t="s">
         <v>210</v>
@@ -3050,7 +3050,7 @@
         <v>211</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F109" t="s">
         <v>212</v>
@@ -3062,7 +3062,7 @@
         <v>213</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F110" t="s">
         <v>214</v>
@@ -3074,7 +3074,7 @@
         <v>215</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F111" t="s">
         <v>216</v>
@@ -3086,7 +3086,7 @@
         <v>217</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F112" t="s">
         <v>218</v>
@@ -3098,7 +3098,7 @@
         <v>219</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F113" t="s">
         <v>220</v>
@@ -3110,7 +3110,7 @@
         <v>221</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F114" t="s">
         <v>222</v>
@@ -3122,7 +3122,7 @@
         <v>223</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F115" t="s">
         <v>224</v>
@@ -3134,7 +3134,7 @@
         <v>225</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F116" t="s">
         <v>226</v>
@@ -3146,7 +3146,7 @@
         <v>227</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F117" t="s">
         <v>228</v>
@@ -3158,7 +3158,7 @@
         <v>229</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F118" t="s">
         <v>230</v>
@@ -3170,7 +3170,7 @@
         <v>89</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F119" t="s">
         <v>231</v>
@@ -3230,7 +3230,7 @@
         <v>239</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F124" t="s">
         <v>240</v>
@@ -3376,7 +3376,7 @@
         <v>268</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F136" t="s">
         <v>264</v>

--- a/ac translations/Chinese.xlsx
+++ b/ac translations/Chinese.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zvi\Desktop\dev\helpers\translation fetcher\ac translations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programming\Remote - Projects\helper projects\Remotes App Translation Project\ac translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese Translation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -823,6 +823,390 @@
   </si>
   <si>
     <t>Every blank line ______ &lt;--- means here will be the company name</t>
+  </si>
+  <si>
+    <t>TOTAL WORDS:</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>出错了，请尝试重新启动</t>
+  </si>
+  <si>
+    <t>重新开始</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t>名字不能为空</t>
+  </si>
+  <si>
+    <t>我的设备音量</t>
+  </si>
+  <si>
+    <t>选择音量设备</t>
+  </si>
+  <si>
+    <t>你选择了</t>
+  </si>
+  <si>
+    <t>冷气机</t>
+  </si>
+  <si>
+    <t>再多一点点...</t>
+  </si>
+  <si>
+    <t>只是稍微长一点</t>
+  </si>
+  <si>
+    <t>多一点点...</t>
+  </si>
+  <si>
+    <t>差不多了…</t>
+  </si>
+  <si>
+    <t>交流远程</t>
+  </si>
+  <si>
+    <t>远程交流</t>
+  </si>
+  <si>
+    <t>远程空调</t>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>没有最爱遥控器:(</t>
+  </si>
+  <si>
+    <t>关于</t>
+  </si>
+  <si>
+    <t>我的遥控器</t>
+  </si>
+  <si>
+    <t>遥控器不工作</t>
+  </si>
+  <si>
+    <t> 远程删除</t>
+  </si>
+  <si>
+    <t>卷</t>
+  </si>
+  <si>
+    <t>远程更新！</t>
+  </si>
+  <si>
+    <t> 不能删除这个项目哈哈</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>添加远程收藏夹！</t>
+  </si>
+  <si>
+    <t>像：卧室</t>
+  </si>
+  <si>
+    <t>选择一个远程名称</t>
+  </si>
+  <si>
+    <t>全名</t>
+  </si>
+  <si>
+    <t>电子邮件</t>
+  </si>
+  <si>
+    <t>发送</t>
+  </si>
+  <si>
+    <t>©％1 $ s Frillapps \ n保留所有权利</t>
+  </si>
+  <si>
+    <t>电视公司</t>
+  </si>
+  <si>
+    <t>电视模型</t>
+  </si>
+  <si>
+    <t>我的电视丢失了</t>
+  </si>
+  <si>
+    <t>我的远程丢失</t>
+  </si>
+  <si>
+    <t>远程公司</t>
+  </si>
+  <si>
+    <t>远程模型（如果知道）</t>
+  </si>
+  <si>
+    <t>远程颜色</t>
+  </si>
+  <si>
+    <t>和我们交谈</t>
+  </si>
+  <si>
+    <t>学科</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>表格发送！</t>
+  </si>
+  <si>
+    <t>表单发送失败</t>
+  </si>
+  <si>
+    <t>请正确填写所有字段</t>
+  </si>
+  <si>
+    <t>更新应用...</t>
+  </si>
+  <si>
+    <t>好吧，好的</t>
+  </si>
+  <si>
+    <t>真？ 出口？</t>
+  </si>
+  <si>
+    <t>留</t>
+  </si>
+  <si>
+    <t>远程工作？</t>
+  </si>
+  <si>
+    <t>有用！</t>
+  </si>
+  <si>
+    <t>1.将手机直接指向您的设备</t>
+  </si>
+  <si>
+    <t>2.确认您正在尝试正确的遥控器，可能有不同的适合您的遥控器</t>
+  </si>
+  <si>
+    <t>务必</t>
+  </si>
+  <si>
+    <t>得到它了</t>
+  </si>
+  <si>
+    <t>选择你的公司</t>
+  </si>
+  <si>
+    <t>选择您的音量</t>
+  </si>
+  <si>
+    <t>搜索…</t>
+  </si>
+  <si>
+    <t>选择你的类别</t>
+  </si>
+  <si>
+    <t>外部IR</t>
+  </si>
+  <si>
+    <t>未检测到外部传感器</t>
+  </si>
+  <si>
+    <t>加载远程...</t>
+  </si>
+  <si>
+    <t>哎呀！</t>
+  </si>
+  <si>
+    <t>你确定你的遥控器没有工作吗？</t>
+  </si>
+  <si>
+    <t>您是否尝试将手机直接指向您的设备？</t>
+  </si>
+  <si>
+    <t>它没有工作</t>
+  </si>
+  <si>
+    <t>检查您的手机是否可以控制其他设备...</t>
+  </si>
+  <si>
+    <t>有用</t>
+  </si>
+  <si>
+    <t>嘿，我们第一次准备一些好东西...</t>
+  </si>
+  <si>
+    <t>第一次发射</t>
+  </si>
+  <si>
+    <t>远程名称已经被使用！</t>
+  </si>
+  <si>
+    <t>颤动</t>
+  </si>
+  <si>
+    <t>真棒</t>
+  </si>
+  <si>
+    <t>私人助理</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>新功能</t>
+  </si>
+  <si>
+    <t>给我们一些时间... \ 我们正在努力寻找正确的设置...</t>
+  </si>
+  <si>
+    <t>后来</t>
+  </si>
+  <si>
+    <t>率</t>
+  </si>
+  <si>
+    <t>通过连接一个小型适配器来提供您的手机远程控制功能</t>
+  </si>
+  <si>
+    <t>你可以从Aliexpress这里得到我们的官方适配器</t>
+  </si>
+  <si>
+    <t>而不是使用选项1中的小型适配器，您可以自己创建一个适配器</t>
+  </si>
+  <si>
+    <t>如何vid：</t>
+  </si>
+  <si>
+    <t>注意：此选项仅适用于所有测试手机的92％</t>
+  </si>
+  <si>
+    <t>对不起，我们不能使它工作</t>
+  </si>
+  <si>
+    <t>但是不要担心，你可以尝试下面的选项（虽然我们不能保证成功）</t>
+  </si>
+  <si>
+    <t>看起来你的手机没有遥控功能</t>
+  </si>
+  <si>
+    <t>选项1 - 使用外部IR</t>
+  </si>
+  <si>
+    <t>选项2 - 使用外部IR</t>
+  </si>
+  <si>
+    <t>哦…</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>有线/星期六</t>
+  </si>
+  <si>
+    <t>电视</t>
+  </si>
+  <si>
+    <t>声吧</t>
+  </si>
+  <si>
+    <t>重试</t>
+  </si>
+  <si>
+    <t>但是不用担心，你有2个选项可以将这个功能添加到你的手机中</t>
+  </si>
+  <si>
+    <t>请确保将遥控器指向您的设备</t>
+  </si>
+  <si>
+    <t>选择您的遥控器</t>
+  </si>
+  <si>
+    <t>让我尝试…</t>
+  </si>
+  <si>
+    <t>但是不用担心</t>
+  </si>
+  <si>
+    <t>选项1</t>
+  </si>
+  <si>
+    <t>选项2</t>
+  </si>
+  <si>
+    <t>现在更新继续乐趣</t>
+  </si>
+  <si>
+    <t>载入中...</t>
+  </si>
+  <si>
+    <t>我们的贡献者</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>你喜欢我们的应用程序吗？</t>
+  </si>
+  <si>
+    <t>耶士</t>
+  </si>
+  <si>
+    <t>不</t>
+  </si>
+  <si>
+    <t>那么也许告诉我们你的爱？</t>
+  </si>
+  <si>
+    <t>评价我们</t>
+  </si>
+  <si>
+    <t>没有互联网 :( 我们需要一些互联网来下载遥控器</t>
+  </si>
+  <si>
+    <t>或者你可以得到任何其他的适配器，大多数应该工作得很好 \ 你可以找到他们在易趣或Aliexpress，只要搜索“红外耳机插孔适配器”</t>
+  </si>
+  <si>
+    <t>好的！ 我们尝试了一些东西 \ 现在再试一次</t>
+  </si>
+  <si>
+    <t> ％ 已添加到收藏夹！</t>
+  </si>
+  <si>
+    <t>好极了, 震动</t>
+  </si>
+  <si>
+    <t>好极了！我们为您提供了一些新的更新！</t>
+  </si>
+  <si>
+    <t>没有连接 \ 等待互联网...</t>
+  </si>
+  <si>
+    <t>你好 :) \ 为你加载一些东西...</t>
+  </si>
+  <si>
+    <t>振动 :(</t>
+  </si>
+  <si>
+    <t>我的公司不在这里 :(</t>
+  </si>
+  <si>
+    <t>否 :(</t>
+  </si>
+  <si>
+    <t>我的遥控器丢失了 :(</t>
+  </si>
+  <si>
+    <t>我的电视不在这里 :(</t>
+  </si>
+  <si>
+    <t>空调遥控 ____  - 现在免费</t>
   </si>
   <si>
     <t>FREE edition for a limited time
@@ -835,8 +1219,6 @@
 Not sure what this means? you can try downloading the app and see if it works
 Your remote is missing? Just ask us for it from the app
 Features:
-* Control your ____ TV from your phone
-* VOLUME control your TV (up/down/mute/av)
 * SAVE your favorite remotes for easy access
 * NO installation, just click and play
 * AMAZING design with cool &amp; easy interface
@@ -845,394 +1227,10 @@
 TV remote control for your click play set top case</t>
   </si>
   <si>
-    <t>TOTAL WORDS:</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>出错了，请尝试重新启动</t>
-  </si>
-  <si>
-    <t>重新开始</t>
-  </si>
-  <si>
-    <t>出口</t>
-  </si>
-  <si>
-    <t>名字不能为空</t>
-  </si>
-  <si>
-    <t>我的设备音量</t>
-  </si>
-  <si>
-    <t>选择音量设备</t>
-  </si>
-  <si>
-    <t>你选择了</t>
-  </si>
-  <si>
-    <t>冷气机</t>
-  </si>
-  <si>
-    <t>再多一点点...</t>
-  </si>
-  <si>
-    <t>只是稍微长一点</t>
-  </si>
-  <si>
-    <t>多一点点...</t>
-  </si>
-  <si>
-    <t>差不多了…</t>
-  </si>
-  <si>
-    <t>交流远程</t>
-  </si>
-  <si>
-    <t>远程交流</t>
-  </si>
-  <si>
-    <t>远程空调</t>
-  </si>
-  <si>
-    <t>概要</t>
-  </si>
-  <si>
-    <t>主菜单</t>
-  </si>
-  <si>
-    <t>没有最爱遥控器:(</t>
-  </si>
-  <si>
-    <t>关于</t>
-  </si>
-  <si>
-    <t>我的遥控器</t>
-  </si>
-  <si>
-    <t>遥控器不工作</t>
-  </si>
-  <si>
-    <t> 远程删除</t>
-  </si>
-  <si>
-    <t>卷</t>
-  </si>
-  <si>
-    <t>远程更新！</t>
-  </si>
-  <si>
-    <t> 不能删除这个项目哈哈</t>
-  </si>
-  <si>
-    <t>好</t>
-  </si>
-  <si>
-    <t>添加远程收藏夹！</t>
-  </si>
-  <si>
-    <t>像：卧室</t>
-  </si>
-  <si>
-    <t>选择一个远程名称</t>
-  </si>
-  <si>
-    <t>全名</t>
-  </si>
-  <si>
-    <t>电子邮件</t>
-  </si>
-  <si>
-    <t>发送</t>
-  </si>
-  <si>
-    <t>©％1 $ s Frillapps \ n保留所有权利</t>
-  </si>
-  <si>
-    <t>电视公司</t>
-  </si>
-  <si>
-    <t>电视模型</t>
-  </si>
-  <si>
-    <t>我的电视丢失了</t>
-  </si>
-  <si>
-    <t>我的远程丢失</t>
-  </si>
-  <si>
-    <t>远程公司</t>
-  </si>
-  <si>
-    <t>远程模型（如果知道）</t>
-  </si>
-  <si>
-    <t>远程颜色</t>
-  </si>
-  <si>
-    <t>和我们交谈</t>
-  </si>
-  <si>
-    <t>学科</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>表格发送！</t>
-  </si>
-  <si>
-    <t>表单发送失败</t>
-  </si>
-  <si>
-    <t>请正确填写所有字段</t>
-  </si>
-  <si>
-    <t>更新应用...</t>
-  </si>
-  <si>
-    <t>好吧，好的</t>
-  </si>
-  <si>
-    <t>真？ 出口？</t>
-  </si>
-  <si>
-    <t>留</t>
-  </si>
-  <si>
-    <t>远程工作？</t>
-  </si>
-  <si>
-    <t>有用！</t>
-  </si>
-  <si>
-    <t>1.将手机直接指向您的设备</t>
-  </si>
-  <si>
-    <t>2.确认您正在尝试正确的遥控器，可能有不同的适合您的遥控器</t>
-  </si>
-  <si>
-    <t>务必</t>
-  </si>
-  <si>
-    <t>得到它了</t>
-  </si>
-  <si>
-    <t>选择你的公司</t>
-  </si>
-  <si>
-    <t>选择您的音量</t>
-  </si>
-  <si>
-    <t>搜索…</t>
-  </si>
-  <si>
-    <t>选择你的类别</t>
-  </si>
-  <si>
-    <t>外部IR</t>
-  </si>
-  <si>
-    <t>未检测到外部传感器</t>
-  </si>
-  <si>
-    <t>加载远程...</t>
-  </si>
-  <si>
-    <t>哎呀！</t>
-  </si>
-  <si>
-    <t>你确定你的遥控器没有工作吗？</t>
-  </si>
-  <si>
-    <t>您是否尝试将手机直接指向您的设备？</t>
-  </si>
-  <si>
-    <t>它没有工作</t>
-  </si>
-  <si>
-    <t>检查您的手机是否可以控制其他设备...</t>
-  </si>
-  <si>
-    <t>有用</t>
-  </si>
-  <si>
-    <t>嘿，我们第一次准备一些好东西...</t>
-  </si>
-  <si>
-    <t>第一次发射</t>
-  </si>
-  <si>
-    <t>远程名称已经被使用！</t>
-  </si>
-  <si>
-    <t>颤动</t>
-  </si>
-  <si>
-    <t>真棒</t>
-  </si>
-  <si>
-    <t>私人助理</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>新功能</t>
-  </si>
-  <si>
-    <t>给我们一些时间... \ 我们正在努力寻找正确的设置...</t>
-  </si>
-  <si>
-    <t>后来</t>
-  </si>
-  <si>
-    <t>率</t>
-  </si>
-  <si>
-    <t>通过连接一个小型适配器来提供您的手机远程控制功能</t>
-  </si>
-  <si>
-    <t>你可以从Aliexpress这里得到我们的官方适配器</t>
-  </si>
-  <si>
-    <t>而不是使用选项1中的小型适配器，您可以自己创建一个适配器</t>
-  </si>
-  <si>
-    <t>如何vid：</t>
-  </si>
-  <si>
-    <t>注意：此选项仅适用于所有测试手机的92％</t>
-  </si>
-  <si>
-    <t>对不起，我们不能使它工作</t>
-  </si>
-  <si>
-    <t>但是不要担心，你可以尝试下面的选项（虽然我们不能保证成功）</t>
-  </si>
-  <si>
-    <t>看起来你的手机没有遥控功能</t>
-  </si>
-  <si>
-    <t>选项1 - 使用外部IR</t>
-  </si>
-  <si>
-    <t>选项2 - 使用外部IR</t>
-  </si>
-  <si>
-    <t>哦…</t>
-  </si>
-  <si>
-    <t>空调</t>
-  </si>
-  <si>
-    <t>有线/星期六</t>
-  </si>
-  <si>
-    <t>电视</t>
-  </si>
-  <si>
-    <t>声吧</t>
-  </si>
-  <si>
-    <t>重试</t>
-  </si>
-  <si>
-    <t>但是不用担心，你有2个选项可以将这个功能添加到你的手机中</t>
-  </si>
-  <si>
-    <t>请确保将遥控器指向您的设备</t>
-  </si>
-  <si>
-    <t>选择您的遥控器</t>
-  </si>
-  <si>
-    <t>让我尝试…</t>
-  </si>
-  <si>
-    <t>但是不用担心</t>
-  </si>
-  <si>
-    <t>选项1</t>
-  </si>
-  <si>
-    <t>选项2</t>
-  </si>
-  <si>
-    <t>现在更新继续乐趣</t>
-  </si>
-  <si>
-    <t>载入中...</t>
-  </si>
-  <si>
-    <t>我们的贡献者</t>
-  </si>
-  <si>
-    <t>你好</t>
-  </si>
-  <si>
-    <t>你喜欢我们的应用程序吗？</t>
-  </si>
-  <si>
-    <t>耶士</t>
-  </si>
-  <si>
-    <t>不</t>
-  </si>
-  <si>
-    <t>那么也许告诉我们你的爱？</t>
-  </si>
-  <si>
-    <t>评价我们</t>
-  </si>
-  <si>
-    <t>没有互联网 :( 我们需要一些互联网来下载遥控器</t>
-  </si>
-  <si>
-    <t>或者你可以得到任何其他的适配器，大多数应该工作得很好 \ 你可以找到他们在易趣或Aliexpress，只要搜索“红外耳机插孔适配器”</t>
-  </si>
-  <si>
-    <t>好的！ 我们尝试了一些东西 \ 现在再试一次</t>
-  </si>
-  <si>
-    <t> ％ 已添加到收藏夹！</t>
-  </si>
-  <si>
-    <t>好极了, 震动</t>
-  </si>
-  <si>
-    <t>好极了！我们为您提供了一些新的更新！</t>
-  </si>
-  <si>
-    <t>没有连接 \ 等待互联网...</t>
-  </si>
-  <si>
-    <t>你好 :) \ 为你加载一些东西...</t>
-  </si>
-  <si>
-    <t>振动 :(</t>
-  </si>
-  <si>
-    <t>我的公司不在这里 :(</t>
-  </si>
-  <si>
-    <t>否 :(</t>
-  </si>
-  <si>
-    <t>我的遥控器丢失了 :(</t>
-  </si>
-  <si>
-    <t>我的电视不在这里 :(</t>
-  </si>
-  <si>
-    <t>空调遥控 ____  - 现在免费</t>
-  </si>
-  <si>
     <t>限时免费版
 遥控空调失去了你的空调？没问题！
 **免责声明
-这个应用程序不是官方的____应用程序
+这个应用程序不是官方的 ____ 应用程序
 它的设计非常谨慎，为用户带来整体更好的体验
 ****重要****
 这个程序需要你的手机有红外传感器
@@ -1243,14 +1241,14 @@
 *没有安装，只需点击和播放
 *令人惊叹的设计与凉爽和简单的界面
 有问题吗？遥控器不工作？
-请随时与我们联系
+请随时与我们联系 ____
 电视遥控器为您的点击播放机顶盒</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -1733,11 +1731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B133" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="B121" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -1752,11 +1750,11 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1" s="17">
         <f>SUMPRODUCT(LEN(TRIM(B4:B136))-LEN(SUBSTITUTE(B4:B136," ",""))+1)</f>
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" thickBot="1"/>
@@ -1768,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>3</v>
@@ -1782,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -1796,7 +1794,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1808,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1822,7 +1820,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -1834,7 +1832,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
@@ -1846,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1858,7 +1856,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1870,7 +1868,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -1882,7 +1880,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" t="s">
         <v>23</v>
@@ -1894,7 +1892,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
@@ -1906,7 +1904,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -1918,7 +1916,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
@@ -1930,7 +1928,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F16" t="s">
         <v>31</v>
@@ -1942,7 +1940,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F17" t="s">
         <v>33</v>
@@ -1954,7 +1952,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
         <v>35</v>
@@ -1966,7 +1964,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -1978,7 +1976,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -1990,7 +1988,7 @@
         <v>40</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
         <v>41</v>
@@ -2002,7 +2000,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -2014,7 +2012,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
@@ -2026,7 +2024,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -2038,7 +2036,7 @@
         <v>48</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -2050,7 +2048,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F26" t="s">
         <v>51</v>
@@ -2062,7 +2060,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F27" t="s">
         <v>53</v>
@@ -2074,7 +2072,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F28" t="s">
         <v>55</v>
@@ -2086,7 +2084,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F29" t="s">
         <v>57</v>
@@ -2098,7 +2096,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -2110,7 +2108,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F31" t="s">
         <v>61</v>
@@ -2122,7 +2120,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -2134,7 +2132,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F33" t="s">
         <v>65</v>
@@ -2146,7 +2144,7 @@
         <v>66</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F34" t="s">
         <v>67</v>
@@ -2158,7 +2156,7 @@
         <v>68</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F35" t="s">
         <v>69</v>
@@ -2170,7 +2168,7 @@
         <v>70</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F36" t="s">
         <v>71</v>
@@ -2182,7 +2180,7 @@
         <v>72</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F37" t="s">
         <v>73</v>
@@ -2194,7 +2192,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F38" t="s">
         <v>75</v>
@@ -2206,7 +2204,7 @@
         <v>76</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F39" t="s">
         <v>77</v>
@@ -2218,7 +2216,7 @@
         <v>78</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F40" t="s">
         <v>79</v>
@@ -2230,7 +2228,7 @@
         <v>80</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F41" t="s">
         <v>81</v>
@@ -2242,7 +2240,7 @@
         <v>82</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F42" t="s">
         <v>83</v>
@@ -2254,7 +2252,7 @@
         <v>78</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F43" t="s">
         <v>84</v>
@@ -2266,7 +2264,7 @@
         <v>85</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F44" t="s">
         <v>86</v>
@@ -2278,7 +2276,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F45" t="s">
         <v>88</v>
@@ -2290,7 +2288,7 @@
         <v>89</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F46" t="s">
         <v>90</v>
@@ -2302,7 +2300,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F47" t="s">
         <v>92</v>
@@ -2314,7 +2312,7 @@
         <v>93</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F48" t="s">
         <v>94</v>
@@ -2326,7 +2324,7 @@
         <v>95</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F49" t="s">
         <v>96</v>
@@ -2338,7 +2336,7 @@
         <v>97</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F50" t="s">
         <v>98</v>
@@ -2350,7 +2348,7 @@
         <v>99</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F51" t="s">
         <v>100</v>
@@ -2362,7 +2360,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F52" t="s">
         <v>102</v>
@@ -2374,7 +2372,7 @@
         <v>103</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F53" t="s">
         <v>104</v>
@@ -2386,7 +2384,7 @@
         <v>105</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F54" t="s">
         <v>106</v>
@@ -2400,7 +2398,7 @@
         <v>107</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F55" t="s">
         <v>108</v>
@@ -2412,7 +2410,7 @@
         <v>109</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F56" t="s">
         <v>110</v>
@@ -2424,7 +2422,7 @@
         <v>111</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F57" t="s">
         <v>112</v>
@@ -2436,7 +2434,7 @@
         <v>113</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F58" t="s">
         <v>114</v>
@@ -2448,7 +2446,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F59" t="s">
         <v>116</v>
@@ -2460,7 +2458,7 @@
         <v>117</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F60" t="s">
         <v>118</v>
@@ -2472,7 +2470,7 @@
         <v>119</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F61" t="s">
         <v>120</v>
@@ -2484,7 +2482,7 @@
         <v>121</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F62" t="s">
         <v>122</v>
@@ -2496,7 +2494,7 @@
         <v>121</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F63" t="s">
         <v>123</v>
@@ -2508,7 +2506,7 @@
         <v>124</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F64" t="s">
         <v>125</v>
@@ -2520,7 +2518,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F65" t="s">
         <v>127</v>
@@ -2532,7 +2530,7 @@
         <v>266</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F66" t="s">
         <v>128</v>
@@ -2544,7 +2542,7 @@
         <v>129</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F67" t="s">
         <v>130</v>
@@ -2556,7 +2554,7 @@
         <v>131</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F68" t="s">
         <v>132</v>
@@ -2568,7 +2566,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F69" t="s">
         <v>134</v>
@@ -2580,7 +2578,7 @@
         <v>135</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F70" t="s">
         <v>136</v>
@@ -2592,7 +2590,7 @@
         <v>137</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F71" t="s">
         <v>138</v>
@@ -2604,7 +2602,7 @@
         <v>139</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F72" t="s">
         <v>140</v>
@@ -2616,7 +2614,7 @@
         <v>141</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F73" t="s">
         <v>142</v>
@@ -2628,7 +2626,7 @@
         <v>143</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F74" t="s">
         <v>144</v>
@@ -2640,7 +2638,7 @@
         <v>145</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F75" t="s">
         <v>146</v>
@@ -2652,7 +2650,7 @@
         <v>147</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F76" t="s">
         <v>148</v>
@@ -2664,7 +2662,7 @@
         <v>149</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F77" t="s">
         <v>150</v>
@@ -2676,7 +2674,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F78" t="s">
         <v>151</v>
@@ -2688,7 +2686,7 @@
         <v>152</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F79" t="s">
         <v>153</v>
@@ -2700,7 +2698,7 @@
         <v>154</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F80" t="s">
         <v>155</v>
@@ -2712,7 +2710,7 @@
         <v>156</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F81" t="s">
         <v>157</v>
@@ -2724,7 +2722,7 @@
         <v>158</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F82" t="s">
         <v>159</v>
@@ -2736,7 +2734,7 @@
         <v>160</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F83" t="s">
         <v>161</v>
@@ -2748,7 +2746,7 @@
         <v>162</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F84" t="s">
         <v>163</v>
@@ -2760,7 +2758,7 @@
         <v>164</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F85" t="s">
         <v>165</v>
@@ -2772,7 +2770,7 @@
         <v>166</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F86" t="s">
         <v>167</v>
@@ -2784,7 +2782,7 @@
         <v>168</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F87" t="s">
         <v>169</v>
@@ -2796,7 +2794,7 @@
         <v>170</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F88" t="s">
         <v>171</v>
@@ -2808,7 +2806,7 @@
         <v>172</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F89" t="s">
         <v>173</v>
@@ -2820,7 +2818,7 @@
         <v>174</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F90" t="s">
         <v>175</v>
@@ -2832,7 +2830,7 @@
         <v>176</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F91" t="s">
         <v>177</v>
@@ -2844,7 +2842,7 @@
         <v>178</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F92" t="s">
         <v>179</v>
@@ -2856,7 +2854,7 @@
         <v>180</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F93" t="s">
         <v>181</v>
@@ -2868,7 +2866,7 @@
         <v>182</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F94" t="s">
         <v>183</v>
@@ -2880,7 +2878,7 @@
         <v>184</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F95" t="s">
         <v>185</v>
@@ -2892,7 +2890,7 @@
         <v>186</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F96" t="s">
         <v>187</v>
@@ -2904,7 +2902,7 @@
         <v>188</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F97" t="s">
         <v>189</v>
@@ -2916,7 +2914,7 @@
         <v>190</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F98" t="s">
         <v>191</v>
@@ -2928,7 +2926,7 @@
         <v>152</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F99" t="s">
         <v>192</v>
@@ -2940,7 +2938,7 @@
         <v>193</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F100" t="s">
         <v>194</v>
@@ -2952,7 +2950,7 @@
         <v>195</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F101" t="s">
         <v>196</v>
@@ -2964,7 +2962,7 @@
         <v>197</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F102" t="s">
         <v>198</v>
@@ -2976,7 +2974,7 @@
         <v>199</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F103" t="s">
         <v>200</v>
@@ -2988,7 +2986,7 @@
         <v>201</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F104" t="s">
         <v>202</v>
@@ -3000,7 +2998,7 @@
         <v>203</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F105" t="s">
         <v>204</v>
@@ -3012,7 +3010,7 @@
         <v>205</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F106" t="s">
         <v>206</v>
@@ -3024,7 +3022,7 @@
         <v>207</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F107" t="s">
         <v>208</v>
@@ -3036,7 +3034,7 @@
         <v>209</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F108" t="s">
         <v>210</v>
@@ -3048,7 +3046,7 @@
         <v>211</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F109" t="s">
         <v>212</v>
@@ -3060,7 +3058,7 @@
         <v>213</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F110" t="s">
         <v>214</v>
@@ -3072,7 +3070,7 @@
         <v>215</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F111" t="s">
         <v>216</v>
@@ -3084,7 +3082,7 @@
         <v>217</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F112" t="s">
         <v>218</v>
@@ -3096,7 +3094,7 @@
         <v>219</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F113" t="s">
         <v>220</v>
@@ -3108,7 +3106,7 @@
         <v>221</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F114" t="s">
         <v>222</v>
@@ -3120,7 +3118,7 @@
         <v>223</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F115" t="s">
         <v>224</v>
@@ -3132,7 +3130,7 @@
         <v>225</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F116" t="s">
         <v>226</v>
@@ -3144,7 +3142,7 @@
         <v>227</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F117" t="s">
         <v>228</v>
@@ -3156,7 +3154,7 @@
         <v>229</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F118" t="s">
         <v>230</v>
@@ -3168,7 +3166,7 @@
         <v>89</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F119" t="s">
         <v>231</v>
@@ -3180,7 +3178,7 @@
         <v>232</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F120" t="s">
         <v>233</v>
@@ -3192,7 +3190,7 @@
         <v>234</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F121" t="s">
         <v>235</v>
@@ -3204,7 +3202,7 @@
         <v>78</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F122" t="s">
         <v>236</v>
@@ -3216,7 +3214,7 @@
         <v>237</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F123" t="s">
         <v>238</v>
@@ -3228,7 +3226,7 @@
         <v>239</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F124" t="s">
         <v>240</v>
@@ -3240,7 +3238,7 @@
         <v>241</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F125" t="s">
         <v>242</v>
@@ -3252,7 +3250,7 @@
         <v>243</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F126" t="s">
         <v>244</v>
@@ -3264,7 +3262,7 @@
         <v>245</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F127" t="s">
         <v>246</v>
@@ -3276,7 +3274,7 @@
         <v>247</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F128" t="s">
         <v>248</v>
@@ -3288,7 +3286,7 @@
         <v>249</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F129" t="s">
         <v>250</v>
@@ -3300,7 +3298,7 @@
         <v>251</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F130" t="s">
         <v>252</v>
@@ -3312,7 +3310,7 @@
         <v>253</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F131" t="s">
         <v>254</v>
@@ -3324,7 +3322,7 @@
         <v>255</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F132" t="s">
         <v>256</v>
@@ -3336,7 +3334,7 @@
         <v>257</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F133" t="s">
         <v>258</v>
@@ -3348,7 +3346,7 @@
         <v>259</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F134" t="s">
         <v>260</v>
@@ -3360,18 +3358,18 @@
         <v>261</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F135" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="345.75" thickBot="1">
+    <row r="136" spans="1:6" ht="331.5" thickBot="1">
       <c r="A136" s="8" t="s">
         <v>263</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="C136" s="14" t="s">
         <v>397</v>
